--- a/data/trans_camb/Hacinamiento_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,42</t>
+          <t>-2,66; 1,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,22</t>
+          <t>-3,34; 1,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,18; -1,46</t>
+          <t>-5,37; -1,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,29</t>
+          <t>-2,35; 1,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,28</t>
+          <t>-2,45; 1,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,11; -1,81</t>
+          <t>-5,25; -1,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,73</t>
+          <t>-1,96; 0,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 0,65</t>
+          <t>-2,18; 0,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -2,28</t>
+          <t>-4,63; -2,17</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,0; 29,63</t>
+          <t>-39,66; 28,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,06; 25,3</t>
+          <t>-47,49; 25,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,74; -26,51</t>
+          <t>-75,6; -26,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,14; 27,06</t>
+          <t>-34,32; 28,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 28,08</t>
+          <t>-35,71; 32,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,4; -36,3</t>
+          <t>-76,42; -33,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 14,46</t>
+          <t>-30,19; 16,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,14; 13,53</t>
+          <t>-33,1; 15,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-72,43; -42,35</t>
+          <t>-70,77; -39,68</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,23</t>
+          <t>-0,48; 2,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,27</t>
+          <t>-1,6; 1,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; -0,71</t>
+          <t>-3,35; -0,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,58</t>
+          <t>-0,98; 2,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,9; -0,77</t>
+          <t>-3,94; -0,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; -2,1</t>
+          <t>-5,09; -2,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,05</t>
+          <t>-0,4; 1,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; -0,06</t>
+          <t>-2,28; -0,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; -1,71</t>
+          <t>-3,87; -1,84</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 61,85</t>
+          <t>-9,68; 67,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 33,95</t>
+          <t>-30,79; 30,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,14; -16,94</t>
+          <t>-63,35; -19,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 46,7</t>
+          <t>-14,01; 46,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,35; -12,84</t>
+          <t>-54,29; -16,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,61; -37,95</t>
+          <t>-68,05; -37,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 45,07</t>
+          <t>-6,9; 40,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,13; -0,69</t>
+          <t>-39,01; -4,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-62,4; -36,22</t>
+          <t>-62,72; -36,8</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -0,89</t>
+          <t>-4,7; -0,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,03</t>
+          <t>-2,46; 2,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 0,14</t>
+          <t>-3,93; 0,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,4</t>
+          <t>-2,43; 3,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 2,64</t>
+          <t>-2,69; 2,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,97; -1,31</t>
+          <t>-6,11; -1,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 0,54</t>
+          <t>-2,8; 0,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,71</t>
+          <t>-1,79; 1,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,08; -1,03</t>
+          <t>-4,23; -1,3</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-92,25; -17,01</t>
+          <t>-91,15; -12,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,81; 82,62</t>
+          <t>-53,0; 92,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,54; 16,69</t>
+          <t>-78,88; 10,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,53; 89,49</t>
+          <t>-39,38; 97,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,27; 72,1</t>
+          <t>-42,7; 74,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-84,32; -30,39</t>
+          <t>-83,36; -25,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-55,99; 19,37</t>
+          <t>-54,94; 16,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,79; 50,78</t>
+          <t>-34,51; 51,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-75,48; -28,2</t>
+          <t>-75,23; -29,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 1,04</t>
+          <t>-1,13; 1,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,56</t>
+          <t>-1,51; 0,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; -1,53</t>
+          <t>-3,39; -1,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,54</t>
+          <t>-0,9; 1,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; -0,34</t>
+          <t>-2,39; -0,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,47; -2,47</t>
+          <t>-4,43; -2,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,87</t>
+          <t>-0,72; 0,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; -0,22</t>
+          <t>-1,72; -0,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,66; -2,3</t>
+          <t>-3,68; -2,3</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 23,08</t>
+          <t>-20,91; 24,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 13,53</t>
+          <t>-27,64; 19,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-64,67; -35,0</t>
+          <t>-63,91; -34,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 28,51</t>
+          <t>-13,54; 24,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-38,19; -5,94</t>
+          <t>-36,4; -4,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-67,46; -46,17</t>
+          <t>-66,88; -43,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 17,23</t>
+          <t>-12,03; 19,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,14; -3,62</t>
+          <t>-29,85; -3,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-63,28; -46,01</t>
+          <t>-62,75; -45,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 1,47</t>
+          <t>-2,74; 1,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 1,21</t>
+          <t>-3,32; 1,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,37; -1,43</t>
+          <t>-5,65; -1,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 1,3</t>
+          <t>-2,26; 1,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,45</t>
+          <t>-2,47; 1,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; -1,82</t>
+          <t>-5,02; -1,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,91</t>
+          <t>-1,99; 0,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 0,77</t>
+          <t>-2,35; 0,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; -2,17</t>
+          <t>-4,75; -2,25</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 28,89</t>
+          <t>-37,33; 30,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,49; 25,28</t>
+          <t>-48,21; 25,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-75,6; -26,49</t>
+          <t>-76,88; -26,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,32; 28,89</t>
+          <t>-34,17; 26,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,71; 32,12</t>
+          <t>-36,76; 27,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,42; -33,54</t>
+          <t>-76,79; -34,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,19; 16,89</t>
+          <t>-29,27; 13,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 15,08</t>
+          <t>-34,64; 12,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-70,77; -39,68</t>
+          <t>-71,59; -40,11</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,51</t>
+          <t>-0,54; 2,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,15</t>
+          <t>-1,73; 1,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; -0,8</t>
+          <t>-3,44; -0,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,47</t>
+          <t>-1,03; 2,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; -0,97</t>
+          <t>-3,96; -0,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -2,08</t>
+          <t>-5,13; -2,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 1,95</t>
+          <t>-0,29; 1,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; -0,21</t>
+          <t>-2,34; -0,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; -1,84</t>
+          <t>-3,78; -1,76</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 67,83</t>
+          <t>-10,63; 65,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,79; 30,27</t>
+          <t>-32,03; 31,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,35; -19,73</t>
+          <t>-64,25; -14,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 46,78</t>
+          <t>-13,66; 43,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,29; -16,7</t>
+          <t>-52,76; -14,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,05; -37,73</t>
+          <t>-68,4; -38,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 40,87</t>
+          <t>-4,82; 41,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,01; -4,4</t>
+          <t>-38,93; -5,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-62,72; -36,8</t>
+          <t>-61,34; -35,83</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,7; -0,63</t>
+          <t>-4,8; -0,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,23</t>
+          <t>-2,6; 2,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 0,16</t>
+          <t>-4,0; 0,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 3,58</t>
+          <t>-2,55; 3,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 2,74</t>
+          <t>-2,57; 2,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,11; -1,26</t>
+          <t>-5,72; -1,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 0,52</t>
+          <t>-3,04; 0,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,7</t>
+          <t>-1,85; 1,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; -1,3</t>
+          <t>-3,95; -0,93</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-91,15; -12,19</t>
+          <t>-90,74; -23,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,0; 92,15</t>
+          <t>-51,18; 92,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-78,88; 10,98</t>
+          <t>-78,71; 10,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,38; 97,95</t>
+          <t>-40,83; 101,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,7; 74,96</t>
+          <t>-41,11; 78,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-83,36; -25,96</t>
+          <t>-83,82; -31,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-54,94; 16,66</t>
+          <t>-56,94; 18,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,51; 51,21</t>
+          <t>-35,35; 57,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-75,23; -29,17</t>
+          <t>-74,61; -26,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,03</t>
+          <t>-1,17; 1,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,77</t>
+          <t>-1,59; 0,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; -1,42</t>
+          <t>-3,42; -1,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,35</t>
+          <t>-0,9; 1,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; -0,24</t>
+          <t>-2,59; -0,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,43; -2,35</t>
+          <t>-4,59; -2,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,99</t>
+          <t>-0,69; 0,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; -0,16</t>
+          <t>-1,72; -0,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; -2,3</t>
+          <t>-3,67; -2,29</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 24,55</t>
+          <t>-21,33; 24,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 19,18</t>
+          <t>-29,36; 13,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,91; -34,02</t>
+          <t>-63,71; -35,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 24,85</t>
+          <t>-14,03; 27,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,4; -4,35</t>
+          <t>-39,25; -6,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,88; -43,89</t>
+          <t>-67,71; -45,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 19,75</t>
+          <t>-11,76; 18,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,85; -3,05</t>
+          <t>-29,31; -3,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-62,75; -45,45</t>
+          <t>-62,46; -45,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,39</t>
+          <t>-2,86; 1,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,25</t>
+          <t>-3,63; 1,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; -1,45</t>
+          <t>-5,18; -1,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,24</t>
+          <t>-2,28; 1,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,4</t>
+          <t>-2,51; 1,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,02; -1,79</t>
+          <t>-5,11; -1,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 0,69</t>
+          <t>-2,13; 0,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,64</t>
+          <t>-2,2; 0,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -2,25</t>
+          <t>-4,77; -2,28</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,33; 30,51</t>
+          <t>-40,0; 29,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,21; 25,73</t>
+          <t>-50,06; 25,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-76,88; -26,6</t>
+          <t>-74,74; -26,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,17; 26,43</t>
+          <t>-34,14; 27,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,76; 27,1</t>
+          <t>-36,68; 28,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,79; -34,17</t>
+          <t>-76,4; -36,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,27; 13,18</t>
+          <t>-31,19; 14,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,64; 12,59</t>
+          <t>-33,14; 13,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-71,59; -40,11</t>
+          <t>-72,43; -42,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,39</t>
+          <t>-0,65; 2,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 1,19</t>
+          <t>-1,52; 1,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; -0,64</t>
+          <t>-3,33; -0,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,4</t>
+          <t>-0,99; 2,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; -0,8</t>
+          <t>-3,9; -0,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; -2,2</t>
+          <t>-5,0; -2,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,98</t>
+          <t>-0,36; 2,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; -0,25</t>
+          <t>-2,24; -0,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; -1,76</t>
+          <t>-3,72; -1,71</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 65,24</t>
+          <t>-13,24; 61,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,03; 31,52</t>
+          <t>-30,0; 33,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,25; -14,26</t>
+          <t>-64,14; -16,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 43,6</t>
+          <t>-13,71; 46,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,76; -14,29</t>
+          <t>-51,35; -12,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,4; -38,6</t>
+          <t>-68,61; -37,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 41,08</t>
+          <t>-5,92; 45,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,93; -5,08</t>
+          <t>-37,13; -0,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-61,34; -35,83</t>
+          <t>-62,4; -36,22</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,8; -0,87</t>
+          <t>-4,77; -0,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,11</t>
+          <t>-2,61; 2,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 0,08</t>
+          <t>-4,1; 0,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 3,48</t>
+          <t>-2,63; 3,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 2,93</t>
+          <t>-3,01; 2,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -1,34</t>
+          <t>-5,97; -1,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 0,52</t>
+          <t>-2,9; 0,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 1,92</t>
+          <t>-1,91; 1,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -0,93</t>
+          <t>-4,08; -1,03</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-90,74; -23,94</t>
+          <t>-92,25; -17,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-51,18; 92,03</t>
+          <t>-54,81; 82,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-78,71; 10,58</t>
+          <t>-77,54; 16,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,83; 101,39</t>
+          <t>-42,53; 89,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,11; 78,64</t>
+          <t>-47,27; 72,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-83,82; -31,64</t>
+          <t>-84,32; -30,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-56,94; 18,27</t>
+          <t>-55,99; 19,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,35; 57,97</t>
+          <t>-36,79; 50,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-74,61; -26,03</t>
+          <t>-75,48; -28,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,06</t>
+          <t>-1,09; 1,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,55</t>
+          <t>-1,53; 0,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; -1,57</t>
+          <t>-3,44; -1,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,45</t>
+          <t>-0,93; 1,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; -0,34</t>
+          <t>-2,52; -0,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; -2,53</t>
+          <t>-4,47; -2,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,95</t>
+          <t>-0,76; 0,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; -0,18</t>
+          <t>-1,71; -0,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,67; -2,29</t>
+          <t>-3,66; -2,3</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 24,98</t>
+          <t>-20,47; 23,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,36; 13,11</t>
+          <t>-27,9; 13,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,71; -35,15</t>
+          <t>-64,67; -35,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 27,5</t>
+          <t>-13,97; 28,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,25; -6,3</t>
+          <t>-38,19; -5,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-67,71; -45,86</t>
+          <t>-67,46; -46,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 18,76</t>
+          <t>-12,92; 17,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,31; -3,26</t>
+          <t>-29,14; -3,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-62,46; -45,33</t>
+          <t>-63,28; -46,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-3,41</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,18; -1,46</t>
+          <t>-5,18; -1,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,11; -1,81</t>
+          <t>-5,02; -1,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -2,28</t>
+          <t>-4,71; -2,18</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-56,17%</t>
+          <t>-55,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-60,53%</t>
+          <t>-59,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-58,83%</t>
+          <t>-57,73%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,74; -26,51</t>
+          <t>-74,36; -26,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,4; -36,3</t>
+          <t>-75,64; -34,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-72,43; -42,35</t>
+          <t>-71,66; -40,72</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-2,89</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; -0,71</t>
+          <t>-3,49; -0,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; -2,1</t>
+          <t>-5,3; -2,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; -1,71</t>
+          <t>-3,88; -1,84</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-46,6%</t>
+          <t>-49,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-55,18%</t>
+          <t>-56,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-51,29%</t>
+          <t>-53,6%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,14; -16,94</t>
+          <t>-68,41; -20,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,61; -37,95</t>
+          <t>-71,38; -37,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-62,4; -36,22</t>
+          <t>-66,03; -38,21</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-2,45</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 0,14</t>
+          <t>-4,08; 0,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,97; -1,31</t>
+          <t>-5,88; -1,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,08; -1,03</t>
+          <t>-3,99; -0,96</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-49,93%</t>
+          <t>-49,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-65,29%</t>
+          <t>-63,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-58,34%</t>
+          <t>-57,1%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,54; 16,69</t>
+          <t>-77,28; 19,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-84,32; -30,39</t>
+          <t>-83,0; -24,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-75,48; -28,2</t>
+          <t>-74,95; -26,24</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-3,02</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; -1,53</t>
+          <t>-3,56; -1,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,47; -2,47</t>
+          <t>-4,53; -2,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,66; -2,3</t>
+          <t>-3,81; -2,36</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-51,96%</t>
+          <t>-53,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-57,67%</t>
+          <t>-57,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-55,08%</t>
+          <t>-55,96%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-64,67; -35,0</t>
+          <t>-67,18; -35,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-67,46; -46,17</t>
+          <t>-68,83; -44,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-63,28; -46,01</t>
+          <t>-64,8; -45,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,42</t>
+          <t>-2,78; 1,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,22</t>
+          <t>-3,32; 1,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,18; -1,42</t>
+          <t>-5,36; -1,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,29</t>
+          <t>-2,27; 1,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,28</t>
+          <t>-2,35; 1,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,02; -1,68</t>
+          <t>-5,06; -1,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,73</t>
+          <t>-1,92; 0,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 0,65</t>
+          <t>-2,24; 0,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,71; -2,18</t>
+          <t>-4,56; -2,1</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,0; 29,63</t>
+          <t>-39,73; 34,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,06; 25,3</t>
+          <t>-46,96; 27,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,36; -26,2</t>
+          <t>-76,05; -22,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,14; 27,06</t>
+          <t>-34,16; 24,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 28,08</t>
+          <t>-36,05; 29,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-75,64; -34,39</t>
+          <t>-74,4; -34,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 14,46</t>
+          <t>-28,9; 15,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,14; 13,53</t>
+          <t>-34,65; 12,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-71,66; -40,72</t>
+          <t>-69,53; -40,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,23</t>
+          <t>-0,47; 2,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,27</t>
+          <t>-1,56; 1,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; -0,77</t>
+          <t>-3,64; -0,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,58</t>
+          <t>-1,16; 2,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,9; -0,77</t>
+          <t>-3,9; -0,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,3; -2,12</t>
+          <t>-5,32; -2,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,05</t>
+          <t>-0,44; 1,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; -0,06</t>
+          <t>-2,36; -0,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; -1,84</t>
+          <t>-3,97; -1,94</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 61,85</t>
+          <t>-10,32; 64,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 33,95</t>
+          <t>-30,1; 31,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,41; -20,31</t>
+          <t>-71,62; -23,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 46,7</t>
+          <t>-15,21; 44,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,35; -12,84</t>
+          <t>-53,37; -17,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,38; -37,8</t>
+          <t>-71,15; -37,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 45,07</t>
+          <t>-7,01; 37,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,13; -0,69</t>
+          <t>-38,51; -4,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-66,03; -38,21</t>
+          <t>-67,11; -38,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -0,89</t>
+          <t>-4,62; -0,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,03</t>
+          <t>-2,64; 2,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 0,2</t>
+          <t>-3,94; 0,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,4</t>
+          <t>-2,54; 3,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 2,64</t>
+          <t>-2,94; 2,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,88; -1,21</t>
+          <t>-5,6; -1,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 0,54</t>
+          <t>-2,84; 0,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,71</t>
+          <t>-1,67; 1,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; -0,96</t>
+          <t>-4,04; -0,88</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-92,25; -17,01</t>
+          <t>-90,64; -27,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,81; 82,62</t>
+          <t>-53,38; 103,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,28; 19,92</t>
+          <t>-77,56; 10,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,53; 89,49</t>
+          <t>-40,2; 99,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,27; 72,1</t>
+          <t>-44,36; 77,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-83,0; -24,49</t>
+          <t>-81,71; -22,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-55,99; 19,37</t>
+          <t>-56,12; 17,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,79; 50,78</t>
+          <t>-32,12; 56,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-74,95; -26,24</t>
+          <t>-75,13; -25,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 1,04</t>
+          <t>-1,13; 1,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,56</t>
+          <t>-1,59; 0,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,56; -1,53</t>
+          <t>-3,62; -1,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,54</t>
+          <t>-1,04; 1,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; -0,34</t>
+          <t>-2,59; -0,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; -2,4</t>
+          <t>-4,52; -2,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,87</t>
+          <t>-0,7; 0,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; -0,22</t>
+          <t>-1,69; -0,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,81; -2,36</t>
+          <t>-3,8; -2,36</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 23,08</t>
+          <t>-21,01; 24,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 13,53</t>
+          <t>-29,71; 13,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,18; -35,08</t>
+          <t>-66,89; -36,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 28,51</t>
+          <t>-14,72; 26,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-38,19; -5,94</t>
+          <t>-38,53; -5,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,83; -44,9</t>
+          <t>-68,9; -44,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 17,23</t>
+          <t>-11,98; 17,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,14; -3,62</t>
+          <t>-29,18; -2,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-64,8; -45,86</t>
+          <t>-64,86; -46,08</t>
         </is>
       </c>
     </row>
